--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il16-Cd4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il16-Cd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.23562442678336</v>
+        <v>2.528209</v>
       </c>
       <c r="H2">
-        <v>2.23562442678336</v>
+        <v>7.584626999999999</v>
       </c>
       <c r="I2">
-        <v>0.07424956722724375</v>
+        <v>0.07797459996163481</v>
       </c>
       <c r="J2">
-        <v>0.07424956722724375</v>
+        <v>0.07797459996163481</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.825812085464172</v>
+        <v>0.4435799999999999</v>
       </c>
       <c r="N2">
-        <v>0.825812085464172</v>
+        <v>1.33074</v>
       </c>
       <c r="O2">
-        <v>0.06018819410039841</v>
+        <v>0.02037110983696637</v>
       </c>
       <c r="P2">
-        <v>0.06018819410039841</v>
+        <v>0.02037110983696636</v>
       </c>
       <c r="Q2">
-        <v>1.84620567019661</v>
+        <v>1.12146294822</v>
       </c>
       <c r="R2">
-        <v>1.84620567019661</v>
+        <v>10.09316653398</v>
       </c>
       <c r="S2">
-        <v>0.004468947364143928</v>
+        <v>0.001588429140311976</v>
       </c>
       <c r="T2">
-        <v>0.004468947364143928</v>
+        <v>0.001588429140311976</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.23562442678336</v>
+        <v>2.528209</v>
       </c>
       <c r="H3">
-        <v>2.23562442678336</v>
+        <v>7.584626999999999</v>
       </c>
       <c r="I3">
-        <v>0.07424956722724375</v>
+        <v>0.07797459996163481</v>
       </c>
       <c r="J3">
-        <v>0.07424956722724375</v>
+        <v>0.07797459996163481</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.7127440661616</v>
+        <v>0.9186686666666667</v>
       </c>
       <c r="N3">
-        <v>12.7127440661616</v>
+        <v>2.756006</v>
       </c>
       <c r="O3">
-        <v>0.9265511135898956</v>
+        <v>0.04218923376267215</v>
       </c>
       <c r="P3">
-        <v>0.9265511135898956</v>
+        <v>0.04218923376267215</v>
       </c>
       <c r="Q3">
-        <v>28.42092116575608</v>
+        <v>2.322586391084667</v>
       </c>
       <c r="R3">
-        <v>28.42092116575608</v>
+        <v>20.903277519762</v>
       </c>
       <c r="S3">
-        <v>0.06879601919797051</v>
+        <v>0.003289688625332258</v>
       </c>
       <c r="T3">
-        <v>0.06879601919797051</v>
+        <v>0.003289688625332258</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.23562442678336</v>
+        <v>2.528209</v>
       </c>
       <c r="H4">
-        <v>2.23562442678336</v>
+        <v>7.584626999999999</v>
       </c>
       <c r="I4">
-        <v>0.07424956722724375</v>
+        <v>0.07797459996163481</v>
       </c>
       <c r="J4">
-        <v>0.07424956722724375</v>
+        <v>0.07797459996163481</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.18194332185329</v>
+        <v>6.947936666666666</v>
       </c>
       <c r="N4">
-        <v>0.18194332185329</v>
+        <v>20.84381</v>
       </c>
       <c r="O4">
-        <v>0.01326069230970607</v>
+        <v>0.3190792663712355</v>
       </c>
       <c r="P4">
-        <v>0.01326069230970607</v>
+        <v>0.3190792663712355</v>
       </c>
       <c r="Q4">
-        <v>0.4067569346253218</v>
+        <v>17.56583601209666</v>
       </c>
       <c r="R4">
-        <v>0.4067569346253218</v>
+        <v>158.09252410887</v>
       </c>
       <c r="S4">
-        <v>0.0009846006651293153</v>
+        <v>0.024880078151349</v>
       </c>
       <c r="T4">
-        <v>0.0009846006651293153</v>
+        <v>0.024880078151349</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.26296515543238</v>
+        <v>2.528209</v>
       </c>
       <c r="H5">
-        <v>1.26296515543238</v>
+        <v>7.584626999999999</v>
       </c>
       <c r="I5">
-        <v>0.0419456036937594</v>
+        <v>0.07797459996163481</v>
       </c>
       <c r="J5">
-        <v>0.0419456036937594</v>
+        <v>0.07797459996163481</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.825812085464172</v>
+        <v>12.76119166666667</v>
       </c>
       <c r="N5">
-        <v>0.825812085464172</v>
+        <v>38.283575</v>
       </c>
       <c r="O5">
-        <v>0.06018819410039841</v>
+        <v>0.5860490488575828</v>
       </c>
       <c r="P5">
-        <v>0.06018819410039841</v>
+        <v>0.5860490488575828</v>
       </c>
       <c r="Q5">
-        <v>1.042971888876196</v>
+        <v>32.26295962239167</v>
       </c>
       <c r="R5">
-        <v>1.042971888876196</v>
+        <v>290.366636601525</v>
       </c>
       <c r="S5">
-        <v>0.002524630136778379</v>
+        <v>0.04569694014256659</v>
       </c>
       <c r="T5">
-        <v>0.002524630136778379</v>
+        <v>0.04569694014256659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.26296515543238</v>
+        <v>2.528209</v>
       </c>
       <c r="H6">
-        <v>1.26296515543238</v>
+        <v>7.584626999999999</v>
       </c>
       <c r="I6">
-        <v>0.0419456036937594</v>
+        <v>0.07797459996163481</v>
       </c>
       <c r="J6">
-        <v>0.0419456036937594</v>
+        <v>0.07797459996163481</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.7127440661616</v>
+        <v>0.2090703333333333</v>
       </c>
       <c r="N6">
-        <v>12.7127440661616</v>
+        <v>0.627211</v>
       </c>
       <c r="O6">
-        <v>0.9265511135898956</v>
+        <v>0.009601412877010921</v>
       </c>
       <c r="P6">
-        <v>0.9265511135898956</v>
+        <v>0.009601412877010921</v>
       </c>
       <c r="Q6">
-        <v>16.05575278549185</v>
+        <v>0.5285734983663333</v>
       </c>
       <c r="R6">
-        <v>16.05575278549185</v>
+        <v>4.757161485296999</v>
       </c>
       <c r="S6">
-        <v>0.03886474581265321</v>
+        <v>0.0007486663281514157</v>
       </c>
       <c r="T6">
-        <v>0.03886474581265321</v>
+        <v>0.0007486663281514157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.26296515543238</v>
+        <v>2.528209</v>
       </c>
       <c r="H7">
-        <v>1.26296515543238</v>
+        <v>7.584626999999999</v>
       </c>
       <c r="I7">
-        <v>0.0419456036937594</v>
+        <v>0.07797459996163481</v>
       </c>
       <c r="J7">
-        <v>0.0419456036937594</v>
+        <v>0.07797459996163481</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.18194332185329</v>
+        <v>0.4945076666666666</v>
       </c>
       <c r="N7">
-        <v>0.18194332185329</v>
+        <v>1.483523</v>
       </c>
       <c r="O7">
-        <v>0.01326069230970607</v>
+        <v>0.02270992829453226</v>
       </c>
       <c r="P7">
-        <v>0.01326069230970607</v>
+        <v>0.02270992829453226</v>
       </c>
       <c r="Q7">
-        <v>0.2297880757643239</v>
+        <v>1.250218733435666</v>
       </c>
       <c r="R7">
-        <v>0.2297880757643239</v>
+        <v>11.251968600921</v>
       </c>
       <c r="S7">
-        <v>0.000556227744327814</v>
+        <v>0.001770797573923564</v>
       </c>
       <c r="T7">
-        <v>0.000556227744327814</v>
+        <v>0.001770797573923564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.55623788570869</v>
+        <v>1.344088666666667</v>
       </c>
       <c r="H8">
-        <v>4.55623788570869</v>
+        <v>4.032266</v>
       </c>
       <c r="I8">
-        <v>0.1513217905231918</v>
+        <v>0.04145415829794943</v>
       </c>
       <c r="J8">
-        <v>0.1513217905231918</v>
+        <v>0.04145415829794944</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.825812085464172</v>
+        <v>0.4435799999999999</v>
       </c>
       <c r="N8">
-        <v>0.825812085464172</v>
+        <v>1.33074</v>
       </c>
       <c r="O8">
-        <v>0.06018819410039841</v>
+        <v>0.02037110983696637</v>
       </c>
       <c r="P8">
-        <v>0.06018819410039841</v>
+        <v>0.02037110983696636</v>
       </c>
       <c r="Q8">
-        <v>3.762596310267963</v>
+        <v>0.5962108507599999</v>
       </c>
       <c r="R8">
-        <v>3.762596310267963</v>
+        <v>5.365897656839999</v>
       </c>
       <c r="S8">
-        <v>0.009107785299629696</v>
+        <v>0.0008444672118865186</v>
       </c>
       <c r="T8">
-        <v>0.009107785299629696</v>
+        <v>0.0008444672118865186</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,184 +968,184 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.55623788570869</v>
+        <v>1.344088666666667</v>
       </c>
       <c r="H9">
-        <v>4.55623788570869</v>
+        <v>4.032266</v>
       </c>
       <c r="I9">
-        <v>0.1513217905231918</v>
+        <v>0.04145415829794943</v>
       </c>
       <c r="J9">
-        <v>0.1513217905231918</v>
+        <v>0.04145415829794944</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.7127440661616</v>
+        <v>0.9186686666666667</v>
       </c>
       <c r="N9">
-        <v>12.7127440661616</v>
+        <v>2.756006</v>
       </c>
       <c r="O9">
-        <v>0.9265511135898956</v>
+        <v>0.04218923376267215</v>
       </c>
       <c r="P9">
-        <v>0.9265511135898956</v>
+        <v>0.04218923376267215</v>
       </c>
       <c r="Q9">
-        <v>57.92228614556382</v>
+        <v>1.234772143288444</v>
       </c>
       <c r="R9">
-        <v>57.92228614556382</v>
+        <v>11.112949289596</v>
       </c>
       <c r="S9">
-        <v>0.1402073735196803</v>
+        <v>0.001748919174867004</v>
       </c>
       <c r="T9">
-        <v>0.1402073735196803</v>
+        <v>0.001748919174867004</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.55623788570869</v>
+        <v>1.344088666666667</v>
       </c>
       <c r="H10">
-        <v>4.55623788570869</v>
+        <v>4.032266</v>
       </c>
       <c r="I10">
-        <v>0.1513217905231918</v>
+        <v>0.04145415829794943</v>
       </c>
       <c r="J10">
-        <v>0.1513217905231918</v>
+        <v>0.04145415829794944</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.18194332185329</v>
+        <v>6.947936666666666</v>
       </c>
       <c r="N10">
-        <v>0.18194332185329</v>
+        <v>20.84381</v>
       </c>
       <c r="O10">
-        <v>0.01326069230970607</v>
+        <v>0.3190792663712355</v>
       </c>
       <c r="P10">
-        <v>0.01326069230970607</v>
+        <v>0.3190792663712355</v>
       </c>
       <c r="Q10">
-        <v>0.8289770560796498</v>
+        <v>9.338642930384443</v>
       </c>
       <c r="R10">
-        <v>0.8289770560796498</v>
+        <v>84.04778637345999</v>
       </c>
       <c r="S10">
-        <v>0.002006631703881843</v>
+        <v>0.01322716241774677</v>
       </c>
       <c r="T10">
-        <v>0.002006631703881843</v>
+        <v>0.01322716241774677</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.17752041333277</v>
+        <v>1.344088666666667</v>
       </c>
       <c r="H11">
-        <v>9.17752041333277</v>
+        <v>4.032266</v>
       </c>
       <c r="I11">
-        <v>0.3048038439486894</v>
+        <v>0.04145415829794943</v>
       </c>
       <c r="J11">
-        <v>0.3048038439486894</v>
+        <v>0.04145415829794944</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.825812085464172</v>
+        <v>12.76119166666667</v>
       </c>
       <c r="N11">
-        <v>0.825812085464172</v>
+        <v>38.283575</v>
       </c>
       <c r="O11">
-        <v>0.06018819410039841</v>
+        <v>0.5860490488575828</v>
       </c>
       <c r="P11">
-        <v>0.06018819410039841</v>
+        <v>0.5860490488575828</v>
       </c>
       <c r="Q11">
-        <v>7.578907271924344</v>
+        <v>17.15217309232778</v>
       </c>
       <c r="R11">
-        <v>7.578907271924344</v>
+        <v>154.36955783095</v>
       </c>
       <c r="S11">
-        <v>0.01834559292213126</v>
+        <v>0.02429417004170494</v>
       </c>
       <c r="T11">
-        <v>0.01834559292213126</v>
+        <v>0.02429417004170494</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.17752041333277</v>
+        <v>1.344088666666667</v>
       </c>
       <c r="H12">
-        <v>9.17752041333277</v>
+        <v>4.032266</v>
       </c>
       <c r="I12">
-        <v>0.3048038439486894</v>
+        <v>0.04145415829794943</v>
       </c>
       <c r="J12">
-        <v>0.3048038439486894</v>
+        <v>0.04145415829794944</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.7127440661616</v>
+        <v>0.2090703333333333</v>
       </c>
       <c r="N12">
-        <v>12.7127440661616</v>
+        <v>0.627211</v>
       </c>
       <c r="O12">
-        <v>0.9265511135898956</v>
+        <v>0.009601412877010921</v>
       </c>
       <c r="P12">
-        <v>0.9265511135898956</v>
+        <v>0.009601412877010921</v>
       </c>
       <c r="Q12">
-        <v>116.6714681766731</v>
+        <v>0.2810090655695556</v>
       </c>
       <c r="R12">
-        <v>116.6714681766731</v>
+        <v>2.529081590126</v>
       </c>
       <c r="S12">
-        <v>0.2824163410371389</v>
+        <v>0.0003980184892875808</v>
       </c>
       <c r="T12">
-        <v>0.2824163410371389</v>
+        <v>0.0003980184892875809</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.17752041333277</v>
+        <v>1.344088666666667</v>
       </c>
       <c r="H13">
-        <v>9.17752041333277</v>
+        <v>4.032266</v>
       </c>
       <c r="I13">
-        <v>0.3048038439486894</v>
+        <v>0.04145415829794943</v>
       </c>
       <c r="J13">
-        <v>0.3048038439486894</v>
+        <v>0.04145415829794944</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.18194332185329</v>
+        <v>0.4945076666666666</v>
       </c>
       <c r="N13">
-        <v>0.18194332185329</v>
+        <v>1.483523</v>
       </c>
       <c r="O13">
-        <v>0.01326069230970607</v>
+        <v>0.02270992829453226</v>
       </c>
       <c r="P13">
-        <v>0.01326069230970607</v>
+        <v>0.02270992829453226</v>
       </c>
       <c r="Q13">
-        <v>1.669788550378143</v>
+        <v>0.6646621503464444</v>
       </c>
       <c r="R13">
-        <v>1.669788550378143</v>
+        <v>5.981959353118</v>
       </c>
       <c r="S13">
-        <v>0.004041909989419236</v>
+        <v>0.000941420962456621</v>
       </c>
       <c r="T13">
-        <v>0.004041909989419236</v>
+        <v>0.0009414209624566211</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.5686984094283</v>
+        <v>5.501111666666668</v>
       </c>
       <c r="H14">
-        <v>12.5686984094283</v>
+        <v>16.503335</v>
       </c>
       <c r="I14">
-        <v>0.4174316608503538</v>
+        <v>0.1696643677609784</v>
       </c>
       <c r="J14">
-        <v>0.4174316608503538</v>
+        <v>0.1696643677609785</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.825812085464172</v>
+        <v>0.4435799999999999</v>
       </c>
       <c r="N14">
-        <v>0.825812085464172</v>
+        <v>1.33074</v>
       </c>
       <c r="O14">
-        <v>0.06018819410039841</v>
+        <v>0.02037110983696637</v>
       </c>
       <c r="P14">
-        <v>0.06018819410039841</v>
+        <v>0.02037110983696636</v>
       </c>
       <c r="Q14">
-        <v>10.37938304506021</v>
+        <v>2.4401831131</v>
       </c>
       <c r="R14">
-        <v>10.37938304506021</v>
+        <v>21.9616480179</v>
       </c>
       <c r="S14">
-        <v>0.02512445782691278</v>
+        <v>0.003456251471078347</v>
       </c>
       <c r="T14">
-        <v>0.02512445782691278</v>
+        <v>0.003456251471078347</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.5686984094283</v>
+        <v>5.501111666666668</v>
       </c>
       <c r="H15">
-        <v>12.5686984094283</v>
+        <v>16.503335</v>
       </c>
       <c r="I15">
-        <v>0.4174316608503538</v>
+        <v>0.1696643677609784</v>
       </c>
       <c r="J15">
-        <v>0.4174316608503538</v>
+        <v>0.1696643677609785</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.7127440661616</v>
+        <v>0.9186686666666667</v>
       </c>
       <c r="N15">
-        <v>12.7127440661616</v>
+        <v>2.756006</v>
       </c>
       <c r="O15">
-        <v>0.9265511135898956</v>
+        <v>0.04218923376267215</v>
       </c>
       <c r="P15">
-        <v>0.9265511135898956</v>
+        <v>0.04218923376267215</v>
       </c>
       <c r="Q15">
-        <v>159.7826461238344</v>
+        <v>5.053698920001112</v>
       </c>
       <c r="R15">
-        <v>159.7826461238344</v>
+        <v>45.48329028001001</v>
       </c>
       <c r="S15">
-        <v>0.3867717702085749</v>
+        <v>0.007158009672663895</v>
       </c>
       <c r="T15">
-        <v>0.3867717702085749</v>
+        <v>0.007158009672663896</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.5686984094283</v>
+        <v>5.501111666666668</v>
       </c>
       <c r="H16">
-        <v>12.5686984094283</v>
+        <v>16.503335</v>
       </c>
       <c r="I16">
-        <v>0.4174316608503538</v>
+        <v>0.1696643677609784</v>
       </c>
       <c r="J16">
-        <v>0.4174316608503538</v>
+        <v>0.1696643677609785</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.18194332185329</v>
+        <v>6.947936666666666</v>
       </c>
       <c r="N16">
-        <v>0.18194332185329</v>
+        <v>20.84381</v>
       </c>
       <c r="O16">
-        <v>0.01326069230970607</v>
+        <v>0.3190792663712355</v>
       </c>
       <c r="P16">
-        <v>0.01326069230970607</v>
+        <v>0.3190792663712355</v>
       </c>
       <c r="Q16">
-        <v>2.286790739983548</v>
+        <v>38.22137545626111</v>
       </c>
       <c r="R16">
-        <v>2.286790739983548</v>
+        <v>343.99237910635</v>
       </c>
       <c r="S16">
-        <v>0.005535432814866121</v>
+        <v>0.0541363819945125</v>
       </c>
       <c r="T16">
-        <v>0.005535432814866121</v>
+        <v>0.0541363819945125</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.30854909511847</v>
+        <v>5.501111666666668</v>
       </c>
       <c r="H17">
-        <v>0.30854909511847</v>
+        <v>16.503335</v>
       </c>
       <c r="I17">
-        <v>0.01024753375676195</v>
+        <v>0.1696643677609784</v>
       </c>
       <c r="J17">
-        <v>0.01024753375676195</v>
+        <v>0.1696643677609785</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.825812085464172</v>
+        <v>12.76119166666667</v>
       </c>
       <c r="N17">
-        <v>0.825812085464172</v>
+        <v>38.283575</v>
       </c>
       <c r="O17">
-        <v>0.06018819410039841</v>
+        <v>0.5860490488575828</v>
       </c>
       <c r="P17">
-        <v>0.06018819410039841</v>
+        <v>0.5860490488575828</v>
       </c>
       <c r="Q17">
-        <v>0.2548035717078669</v>
+        <v>70.20074035806945</v>
       </c>
       <c r="R17">
-        <v>0.2548035717078669</v>
+        <v>631.8066632226252</v>
       </c>
       <c r="S17">
-        <v>0.0006167805508023732</v>
+        <v>0.09943164135134454</v>
       </c>
       <c r="T17">
-        <v>0.0006167805508023732</v>
+        <v>0.09943164135134457</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,1233 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.30854909511847</v>
+        <v>5.501111666666668</v>
       </c>
       <c r="H18">
-        <v>0.30854909511847</v>
+        <v>16.503335</v>
       </c>
       <c r="I18">
-        <v>0.01024753375676195</v>
+        <v>0.1696643677609784</v>
       </c>
       <c r="J18">
-        <v>0.01024753375676195</v>
+        <v>0.1696643677609785</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>12.7127440661616</v>
+        <v>0.2090703333333333</v>
       </c>
       <c r="N18">
-        <v>12.7127440661616</v>
+        <v>0.627211</v>
       </c>
       <c r="O18">
-        <v>0.9265511135898956</v>
+        <v>0.009601412877010921</v>
       </c>
       <c r="P18">
-        <v>0.9265511135898956</v>
+        <v>0.009601412877010921</v>
       </c>
       <c r="Q18">
-        <v>3.922505678086861</v>
+        <v>1.150119249853889</v>
       </c>
       <c r="R18">
-        <v>3.922505678086861</v>
+        <v>10.351073248685</v>
       </c>
       <c r="S18">
-        <v>0.009494863813877831</v>
+        <v>0.001629017645390175</v>
       </c>
       <c r="T18">
-        <v>0.009494863813877831</v>
+        <v>0.001629017645390175</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.501111666666668</v>
+      </c>
+      <c r="H19">
+        <v>16.503335</v>
+      </c>
+      <c r="I19">
+        <v>0.1696643677609784</v>
+      </c>
+      <c r="J19">
+        <v>0.1696643677609785</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.4945076666666666</v>
+      </c>
+      <c r="N19">
+        <v>1.483523</v>
+      </c>
+      <c r="O19">
+        <v>0.02270992829453226</v>
+      </c>
+      <c r="P19">
+        <v>0.02270992829453226</v>
+      </c>
+      <c r="Q19">
+        <v>2.720341894356111</v>
+      </c>
+      <c r="R19">
+        <v>24.483077049205</v>
+      </c>
+      <c r="S19">
+        <v>0.00385306562598897</v>
+      </c>
+      <c r="T19">
+        <v>0.003853065625988971</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>9.507065666666666</v>
+      </c>
+      <c r="H20">
+        <v>28.521197</v>
+      </c>
+      <c r="I20">
+        <v>0.293215332342906</v>
+      </c>
+      <c r="J20">
+        <v>0.2932153323429061</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.4435799999999999</v>
+      </c>
+      <c r="N20">
+        <v>1.33074</v>
+      </c>
+      <c r="O20">
+        <v>0.02037110983696637</v>
+      </c>
+      <c r="P20">
+        <v>0.02037110983696636</v>
+      </c>
+      <c r="Q20">
+        <v>4.217144188419999</v>
+      </c>
+      <c r="R20">
+        <v>37.95429769577999</v>
+      </c>
+      <c r="S20">
+        <v>0.005973121741039936</v>
+      </c>
+      <c r="T20">
+        <v>0.005973121741039936</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>9.507065666666666</v>
+      </c>
+      <c r="H21">
+        <v>28.521197</v>
+      </c>
+      <c r="I21">
+        <v>0.293215332342906</v>
+      </c>
+      <c r="J21">
+        <v>0.2932153323429061</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9186686666666667</v>
+      </c>
+      <c r="N21">
+        <v>2.756006</v>
+      </c>
+      <c r="O21">
+        <v>0.04218923376267215</v>
+      </c>
+      <c r="P21">
+        <v>0.04218923376267215</v>
+      </c>
+      <c r="Q21">
+        <v>8.733843339909111</v>
+      </c>
+      <c r="R21">
+        <v>78.604590059182</v>
+      </c>
+      <c r="S21">
+        <v>0.01237053019901447</v>
+      </c>
+      <c r="T21">
+        <v>0.01237053019901447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>9.507065666666666</v>
+      </c>
+      <c r="H22">
+        <v>28.521197</v>
+      </c>
+      <c r="I22">
+        <v>0.293215332342906</v>
+      </c>
+      <c r="J22">
+        <v>0.2932153323429061</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>6.947936666666666</v>
+      </c>
+      <c r="N22">
+        <v>20.84381</v>
+      </c>
+      <c r="O22">
+        <v>0.3190792663712355</v>
+      </c>
+      <c r="P22">
+        <v>0.3190792663712355</v>
+      </c>
+      <c r="Q22">
+        <v>66.0544901378411</v>
+      </c>
+      <c r="R22">
+        <v>594.4904112405699</v>
+      </c>
+      <c r="S22">
+        <v>0.09355893313277246</v>
+      </c>
+      <c r="T22">
+        <v>0.09355893313277246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>9.507065666666666</v>
+      </c>
+      <c r="H23">
+        <v>28.521197</v>
+      </c>
+      <c r="I23">
+        <v>0.293215332342906</v>
+      </c>
+      <c r="J23">
+        <v>0.2932153323429061</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>12.76119166666667</v>
+      </c>
+      <c r="N23">
+        <v>38.283575</v>
+      </c>
+      <c r="O23">
+        <v>0.5860490488575828</v>
+      </c>
+      <c r="P23">
+        <v>0.5860490488575828</v>
+      </c>
+      <c r="Q23">
+        <v>121.3214871599194</v>
+      </c>
+      <c r="R23">
+        <v>1091.893384439275</v>
+      </c>
+      <c r="S23">
+        <v>0.1718385666300201</v>
+      </c>
+      <c r="T23">
+        <v>0.1718385666300201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.30854909511847</v>
-      </c>
-      <c r="H19">
-        <v>0.30854909511847</v>
-      </c>
-      <c r="I19">
-        <v>0.01024753375676195</v>
-      </c>
-      <c r="J19">
-        <v>0.01024753375676195</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.18194332185329</v>
-      </c>
-      <c r="N19">
-        <v>0.18194332185329</v>
-      </c>
-      <c r="O19">
-        <v>0.01326069230970607</v>
-      </c>
-      <c r="P19">
-        <v>0.01326069230970607</v>
-      </c>
-      <c r="Q19">
-        <v>0.05613844732068118</v>
-      </c>
-      <c r="R19">
-        <v>0.05613844732068118</v>
-      </c>
-      <c r="S19">
-        <v>0.0001358893920817466</v>
-      </c>
-      <c r="T19">
-        <v>0.0001358893920817466</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>9.507065666666666</v>
+      </c>
+      <c r="H24">
+        <v>28.521197</v>
+      </c>
+      <c r="I24">
+        <v>0.293215332342906</v>
+      </c>
+      <c r="J24">
+        <v>0.2932153323429061</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2090703333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.627211</v>
+      </c>
+      <c r="O24">
+        <v>0.009601412877010921</v>
+      </c>
+      <c r="P24">
+        <v>0.009601412877010921</v>
+      </c>
+      <c r="Q24">
+        <v>1.987645387951889</v>
+      </c>
+      <c r="R24">
+        <v>17.888808491567</v>
+      </c>
+      <c r="S24">
+        <v>0.002815281467694215</v>
+      </c>
+      <c r="T24">
+        <v>0.002815281467694215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>9.507065666666666</v>
+      </c>
+      <c r="H25">
+        <v>28.521197</v>
+      </c>
+      <c r="I25">
+        <v>0.293215332342906</v>
+      </c>
+      <c r="J25">
+        <v>0.2932153323429061</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.4945076666666666</v>
+      </c>
+      <c r="N25">
+        <v>1.483523</v>
+      </c>
+      <c r="O25">
+        <v>0.02270992829453226</v>
+      </c>
+      <c r="P25">
+        <v>0.02270992829453226</v>
+      </c>
+      <c r="Q25">
+        <v>4.70131685967011</v>
+      </c>
+      <c r="R25">
+        <v>42.31185173703099</v>
+      </c>
+      <c r="S25">
+        <v>0.006658899172364841</v>
+      </c>
+      <c r="T25">
+        <v>0.006658899172364842</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>13.22109733333333</v>
+      </c>
+      <c r="H26">
+        <v>39.663292</v>
+      </c>
+      <c r="I26">
+        <v>0.4077628770487342</v>
+      </c>
+      <c r="J26">
+        <v>0.4077628770487343</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.4435799999999999</v>
+      </c>
+      <c r="N26">
+        <v>1.33074</v>
+      </c>
+      <c r="O26">
+        <v>0.02037110983696637</v>
+      </c>
+      <c r="P26">
+        <v>0.02037110983696636</v>
+      </c>
+      <c r="Q26">
+        <v>5.864614355119999</v>
+      </c>
+      <c r="R26">
+        <v>52.78152919607999</v>
+      </c>
+      <c r="S26">
+        <v>0.008306582355797176</v>
+      </c>
+      <c r="T26">
+        <v>0.008306582355797176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>13.22109733333333</v>
+      </c>
+      <c r="H27">
+        <v>39.663292</v>
+      </c>
+      <c r="I27">
+        <v>0.4077628770487342</v>
+      </c>
+      <c r="J27">
+        <v>0.4077628770487343</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.9186686666666667</v>
+      </c>
+      <c r="N27">
+        <v>2.756006</v>
+      </c>
+      <c r="O27">
+        <v>0.04218923376267215</v>
+      </c>
+      <c r="P27">
+        <v>0.04218923376267215</v>
+      </c>
+      <c r="Q27">
+        <v>12.14580785908356</v>
+      </c>
+      <c r="R27">
+        <v>109.312270731752</v>
+      </c>
+      <c r="S27">
+        <v>0.01720320333954879</v>
+      </c>
+      <c r="T27">
+        <v>0.01720320333954879</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>13.22109733333333</v>
+      </c>
+      <c r="H28">
+        <v>39.663292</v>
+      </c>
+      <c r="I28">
+        <v>0.4077628770487342</v>
+      </c>
+      <c r="J28">
+        <v>0.4077628770487343</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>6.947936666666666</v>
+      </c>
+      <c r="N28">
+        <v>20.84381</v>
+      </c>
+      <c r="O28">
+        <v>0.3190792663712355</v>
+      </c>
+      <c r="P28">
+        <v>0.3190792663712355</v>
+      </c>
+      <c r="Q28">
+        <v>91.85934693583555</v>
+      </c>
+      <c r="R28">
+        <v>826.7341224225199</v>
+      </c>
+      <c r="S28">
+        <v>0.1301086796621344</v>
+      </c>
+      <c r="T28">
+        <v>0.1301086796621344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>13.22109733333333</v>
+      </c>
+      <c r="H29">
+        <v>39.663292</v>
+      </c>
+      <c r="I29">
+        <v>0.4077628770487342</v>
+      </c>
+      <c r="J29">
+        <v>0.4077628770487343</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>12.76119166666667</v>
+      </c>
+      <c r="N29">
+        <v>38.283575</v>
+      </c>
+      <c r="O29">
+        <v>0.5860490488575828</v>
+      </c>
+      <c r="P29">
+        <v>0.5860490488575828</v>
+      </c>
+      <c r="Q29">
+        <v>168.7169571143222</v>
+      </c>
+      <c r="R29">
+        <v>1518.4526140289</v>
+      </c>
+      <c r="S29">
+        <v>0.2389690462538422</v>
+      </c>
+      <c r="T29">
+        <v>0.2389690462538422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>13.22109733333333</v>
+      </c>
+      <c r="H30">
+        <v>39.663292</v>
+      </c>
+      <c r="I30">
+        <v>0.4077628770487342</v>
+      </c>
+      <c r="J30">
+        <v>0.4077628770487343</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.2090703333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.627211</v>
+      </c>
+      <c r="O30">
+        <v>0.009601412877010921</v>
+      </c>
+      <c r="P30">
+        <v>0.009601412877010921</v>
+      </c>
+      <c r="Q30">
+        <v>2.764139226512444</v>
+      </c>
+      <c r="R30">
+        <v>24.877253038612</v>
+      </c>
+      <c r="S30">
+        <v>0.003915099738462737</v>
+      </c>
+      <c r="T30">
+        <v>0.003915099738462739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>13.22109733333333</v>
+      </c>
+      <c r="H31">
+        <v>39.663292</v>
+      </c>
+      <c r="I31">
+        <v>0.4077628770487342</v>
+      </c>
+      <c r="J31">
+        <v>0.4077628770487343</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.4945076666666666</v>
+      </c>
+      <c r="N31">
+        <v>1.483523</v>
+      </c>
+      <c r="O31">
+        <v>0.02270992829453226</v>
+      </c>
+      <c r="P31">
+        <v>0.02270992829453226</v>
+      </c>
+      <c r="Q31">
+        <v>6.537933993079554</v>
+      </c>
+      <c r="R31">
+        <v>58.841405937716</v>
+      </c>
+      <c r="S31">
+        <v>0.009260265698948927</v>
+      </c>
+      <c r="T31">
+        <v>0.00926026569894893</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.321922</v>
+      </c>
+      <c r="H32">
+        <v>0.9657660000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.009928664587796896</v>
+      </c>
+      <c r="J32">
+        <v>0.009928664587796898</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.4435799999999999</v>
+      </c>
+      <c r="N32">
+        <v>1.33074</v>
+      </c>
+      <c r="O32">
+        <v>0.02037110983696637</v>
+      </c>
+      <c r="P32">
+        <v>0.02037110983696636</v>
+      </c>
+      <c r="Q32">
+        <v>0.14279816076</v>
+      </c>
+      <c r="R32">
+        <v>1.28518344684</v>
+      </c>
+      <c r="S32">
+        <v>0.000202257916852409</v>
+      </c>
+      <c r="T32">
+        <v>0.000202257916852409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.321922</v>
+      </c>
+      <c r="H33">
+        <v>0.9657660000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.009928664587796896</v>
+      </c>
+      <c r="J33">
+        <v>0.009928664587796898</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.9186686666666667</v>
+      </c>
+      <c r="N33">
+        <v>2.756006</v>
+      </c>
+      <c r="O33">
+        <v>0.04218923376267215</v>
+      </c>
+      <c r="P33">
+        <v>0.04218923376267215</v>
+      </c>
+      <c r="Q33">
+        <v>0.2957396545106667</v>
+      </c>
+      <c r="R33">
+        <v>2.661656890596</v>
+      </c>
+      <c r="S33">
+        <v>0.0004188827512457281</v>
+      </c>
+      <c r="T33">
+        <v>0.0004188827512457283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.321922</v>
+      </c>
+      <c r="H34">
+        <v>0.9657660000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.009928664587796896</v>
+      </c>
+      <c r="J34">
+        <v>0.009928664587796898</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>6.947936666666666</v>
+      </c>
+      <c r="N34">
+        <v>20.84381</v>
+      </c>
+      <c r="O34">
+        <v>0.3190792663712355</v>
+      </c>
+      <c r="P34">
+        <v>0.3190792663712355</v>
+      </c>
+      <c r="Q34">
+        <v>2.236693667606667</v>
+      </c>
+      <c r="R34">
+        <v>20.13024300846</v>
+      </c>
+      <c r="S34">
+        <v>0.003168031012720299</v>
+      </c>
+      <c r="T34">
+        <v>0.003168031012720299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.321922</v>
+      </c>
+      <c r="H35">
+        <v>0.9657660000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.009928664587796896</v>
+      </c>
+      <c r="J35">
+        <v>0.009928664587796898</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>12.76119166666667</v>
+      </c>
+      <c r="N35">
+        <v>38.283575</v>
+      </c>
+      <c r="O35">
+        <v>0.5860490488575828</v>
+      </c>
+      <c r="P35">
+        <v>0.5860490488575828</v>
+      </c>
+      <c r="Q35">
+        <v>4.108108343716667</v>
+      </c>
+      <c r="R35">
+        <v>36.97297509345</v>
+      </c>
+      <c r="S35">
+        <v>0.005818684438104336</v>
+      </c>
+      <c r="T35">
+        <v>0.005818684438104337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.321922</v>
+      </c>
+      <c r="H36">
+        <v>0.9657660000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.009928664587796896</v>
+      </c>
+      <c r="J36">
+        <v>0.009928664587796898</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.2090703333333333</v>
+      </c>
+      <c r="N36">
+        <v>0.627211</v>
+      </c>
+      <c r="O36">
+        <v>0.009601412877010921</v>
+      </c>
+      <c r="P36">
+        <v>0.009601412877010921</v>
+      </c>
+      <c r="Q36">
+        <v>0.06730433984733335</v>
+      </c>
+      <c r="R36">
+        <v>0.6057390586260001</v>
+      </c>
+      <c r="S36">
+        <v>9.532920802479545E-05</v>
+      </c>
+      <c r="T36">
+        <v>9.532920802479546E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.321922</v>
+      </c>
+      <c r="H37">
+        <v>0.9657660000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.009928664587796896</v>
+      </c>
+      <c r="J37">
+        <v>0.009928664587796898</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>0.4945076666666666</v>
+      </c>
+      <c r="N37">
+        <v>1.483523</v>
+      </c>
+      <c r="O37">
+        <v>0.02270992829453226</v>
+      </c>
+      <c r="P37">
+        <v>0.02270992829453226</v>
+      </c>
+      <c r="Q37">
+        <v>0.1591928970686667</v>
+      </c>
+      <c r="R37">
+        <v>1.432736073618</v>
+      </c>
+      <c r="S37">
+        <v>0.0002254792608493292</v>
+      </c>
+      <c r="T37">
+        <v>0.0002254792608493292</v>
       </c>
     </row>
   </sheetData>
